--- a/ScriptsToMakeDB/JX4_table.xlsx
+++ b/ScriptsToMakeDB/JX4_table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7725"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="119">
   <si>
     <t>type</t>
   </si>
@@ -175,9 +175,6 @@
     <t>Root harvest; add a KILL operation after this harvest</t>
   </si>
   <si>
-    <t xml:space="preserve">Straw and stover harvest. For straw and stover removal percentage above 0, schedule this  after grain harvest. </t>
-  </si>
-  <si>
     <t>Hay harvest.</t>
   </si>
   <si>
@@ -398,6 +395,18 @@
   </si>
   <si>
     <t>All cover crops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Straw and stover harvest without grain harvest. For straw and stover removal percentage is equal to 0, schedule a KILL  after this harvest. </t>
+  </si>
+  <si>
+    <t>SILHVNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Straw and stover harvest. For straw and stover removal percentage above 0, schedule this  after grain harvest if grain checkbox is selected. </t>
+  </si>
+  <si>
+    <t>(These are the hay crops) Alfalfa; Clover; Grass; Grass-Legume; Switchgrass;</t>
   </si>
 </sst>
 </file>
@@ -793,10 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,10 +824,10 @@
         <v>5</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>110</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>25</v>
@@ -844,10 +853,10 @@
         <v>28</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -870,10 +879,10 @@
         <v>28</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E3">
         <v>6</v>
@@ -882,13 +891,13 @@
         <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H3">
         <v>121</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -899,7 +908,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -914,7 +923,7 @@
         <v>131</v>
       </c>
       <c r="I4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -937,7 +946,7 @@
         <v>134</v>
       </c>
       <c r="I5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -945,7 +954,7 @@
         <v>28</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -968,10 +977,10 @@
         <v>28</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" t="s">
         <v>93</v>
-      </c>
-      <c r="D7" t="s">
-        <v>94</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -994,22 +1003,22 @@
         <v>28</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8">
         <v>424</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1017,10 +1026,10 @@
         <v>33</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -1043,13 +1052,13 @@
         <v>33</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1058,27 +1067,33 @@
         <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="13">
+        <v>2</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H11" t="s">
-        <v>109</v>
+      <c r="H11" s="13">
+        <v>765</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1086,22 +1101,19 @@
         <v>33</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" t="s">
         <v>35</v>
       </c>
-      <c r="H12">
-        <v>402</v>
-      </c>
-      <c r="I12" t="s">
-        <v>37</v>
+      <c r="H12" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1109,10 +1121,10 @@
         <v>33</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1121,59 +1133,59 @@
         <v>35</v>
       </c>
       <c r="H13">
-        <v>339</v>
+        <v>402</v>
       </c>
       <c r="I13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
+      </c>
+      <c r="D14" t="s">
+        <v>94</v>
       </c>
       <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14">
+        <v>339</v>
+      </c>
+      <c r="I14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15">
         <v>1</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15">
+        <v>451</v>
+      </c>
+      <c r="I15" t="s">
         <v>44</v>
-      </c>
-      <c r="H14">
-        <v>451</v>
-      </c>
-      <c r="I14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>97</v>
-      </c>
-      <c r="H15">
-        <v>382</v>
-      </c>
-      <c r="I15" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1181,22 +1193,22 @@
         <v>7</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>52</v>
+        <v>92</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="E16">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H16">
-        <v>425</v>
+        <v>382</v>
       </c>
       <c r="I16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1204,22 +1216,22 @@
         <v>7</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>99</v>
+        <v>92</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="E17">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="H17">
-        <v>500</v>
+        <v>425</v>
       </c>
       <c r="I17" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1227,7 +1239,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E18">
         <v>8</v>
@@ -1236,13 +1248,13 @@
         <v>7</v>
       </c>
       <c r="G18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H18">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="I18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1250,7 +1262,7 @@
         <v>7</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E19">
         <v>8</v>
@@ -1259,36 +1271,36 @@
         <v>7</v>
       </c>
       <c r="G19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H19">
-        <v>530</v>
+        <v>502</v>
       </c>
       <c r="I19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="E20">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" t="s">
         <v>9</v>
       </c>
-      <c r="F20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="7">
-        <v>267</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>68</v>
+      <c r="H20">
+        <v>530</v>
+      </c>
+      <c r="I20" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1296,7 +1308,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E21">
         <v>9</v>
@@ -1305,13 +1317,13 @@
         <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="8">
-        <v>472</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>69</v>
+        <v>16</v>
+      </c>
+      <c r="H21" s="7">
+        <v>267</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1319,7 +1331,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E22">
         <v>9</v>
@@ -1328,13 +1340,13 @@
         <v>15</v>
       </c>
       <c r="G22" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22">
-        <v>725</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>67</v>
+        <v>17</v>
+      </c>
+      <c r="H22" s="8">
+        <v>472</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1342,7 +1354,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E23">
         <v>9</v>
@@ -1351,12 +1363,12 @@
         <v>15</v>
       </c>
       <c r="G23" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="6">
-        <v>738</v>
-      </c>
-      <c r="I23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23">
+        <v>725</v>
+      </c>
+      <c r="I23" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1365,7 +1377,7 @@
         <v>14</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E24">
         <v>9</v>
@@ -1374,352 +1386,375 @@
         <v>15</v>
       </c>
       <c r="G24" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24">
-        <v>258</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>66</v>
+        <v>19</v>
+      </c>
+      <c r="H24" s="6">
+        <v>738</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E25">
         <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="9">
-        <v>266</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>70</v>
+        <v>15</v>
+      </c>
+      <c r="G25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25">
+        <v>258</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E26">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>46</v>
-      </c>
-      <c r="G26" t="s">
-        <v>57</v>
-      </c>
-      <c r="H26">
-        <v>426</v>
-      </c>
-      <c r="I26" t="s">
-        <v>58</v>
+        <v>21</v>
+      </c>
+      <c r="H26" s="9">
+        <v>266</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" t="s">
         <v>59</v>
       </c>
       <c r="E27">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G27" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H27">
-        <v>427</v>
+        <v>426</v>
+      </c>
+      <c r="I27" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="E28">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>62</v>
+        <v>45</v>
+      </c>
+      <c r="G28" t="s">
+        <v>60</v>
       </c>
       <c r="H28">
-        <v>734</v>
-      </c>
-      <c r="I28" t="s">
-        <v>64</v>
+        <v>427</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29">
+        <v>27</v>
+      </c>
+      <c r="F29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H29">
+        <v>734</v>
+      </c>
+      <c r="I29" t="s">
         <v>63</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29">
-        <v>14</v>
-      </c>
-      <c r="F29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H29">
-        <v>397</v>
-      </c>
-      <c r="I29" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H30">
+        <v>397</v>
+      </c>
+      <c r="I30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30" t="s">
-        <v>71</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H30" s="9">
+      <c r="H31" s="9">
         <v>208</v>
       </c>
-      <c r="I30" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" s="9">
-        <v>0</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H31" s="9">
-        <v>247</v>
-      </c>
       <c r="I31" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E32" s="9">
         <v>0</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H32" s="9">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E33" s="9">
         <v>0</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H33" s="9">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E34" s="9">
         <v>0</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H34" s="9">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E35" s="9">
         <v>0</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H35" s="9">
+        <v>211</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="9">
+        <v>0</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H36" s="9">
         <v>139</v>
       </c>
-      <c r="I35" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E36" s="13">
-        <v>0</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G36" t="s">
-        <v>84</v>
-      </c>
-      <c r="H36" s="10">
-        <v>565</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>88</v>
+      <c r="I36" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E37" s="13">
         <v>0</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G37" t="s">
-        <v>85</v>
-      </c>
-      <c r="H37" s="13">
-        <v>197</v>
-      </c>
-      <c r="I37" s="13" t="s">
-        <v>91</v>
+        <v>83</v>
+      </c>
+      <c r="H37" s="10">
+        <v>565</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E38" s="13">
         <v>0</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G38" t="s">
-        <v>86</v>
-      </c>
-      <c r="H38" s="12">
-        <v>325</v>
-      </c>
-      <c r="I38" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H38" s="13">
+        <v>197</v>
+      </c>
+      <c r="I38" s="13" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E39" s="13">
         <v>0</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G39" t="s">
-        <v>87</v>
-      </c>
-      <c r="H39" s="11">
+        <v>85</v>
+      </c>
+      <c r="H39" s="12">
+        <v>325</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" s="13">
+        <v>0</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G40" t="s">
+        <v>86</v>
+      </c>
+      <c r="H40" s="11">
         <v>611</v>
       </c>
-      <c r="I39" s="11" t="s">
-        <v>89</v>
+      <c r="I40" s="11" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
